--- a/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_15-03-2023.xlsx
+++ b/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_15-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2B827-442C-4744-AA2A-A267CB1F066E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127C7C3D-063F-42B7-8AF4-0587D70171BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14400" windowHeight="7344" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="533">
   <si>
     <t>HC40T</t>
   </si>
@@ -1845,18 +1845,6 @@
   </si>
   <si>
     <t>28/02/2023 17:00</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Invoices\Monthly\Invoices_15-03-2023\IN 22120770 - Monthly Scenario.pdf</t>
-  </si>
-  <si>
-    <t>IN 22120770</t>
-  </si>
-  <si>
-    <t>Business Exception</t>
-  </si>
-  <si>
-    <t>There are no entries in the Time Sheet file for PO Number: PO23000445 Please check it manually if they are present on Portal.</t>
   </si>
 </sst>
 </file>
@@ -2926,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:Z3"/>
     </sheetView>
   </sheetViews>
@@ -3065,12 +3053,8 @@
       <c r="E2" s="13">
         <v>12345</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>534</v>
-      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
         <v>522</v>
@@ -3108,12 +3092,9 @@
       <c r="W2" t="s">
         <v>527</v>
       </c>
-      <c r="Y2" t="s">
-        <v>527</v>
-      </c>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:37" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>526</v>
       </c>
@@ -3168,12 +3149,7 @@
       <c r="W3" t="s">
         <v>527</v>
       </c>
-      <c r="Y3" t="s">
-        <v>535</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>536</v>
-      </c>
+      <c r="Z3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I4" s="15"/>
